--- a/ws_win_patterns/WS Win Patterns.xlsx
+++ b/ws_win_patterns/WS Win Patterns.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11114"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadamico/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gadamico/Sports-Data/ws_win_patterns/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D5809ED-25CF-1048-94E6-F19E17B52B85}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5EA9BF9-DF0A-7848-848D-02EE33A3E2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16140" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15800" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -443,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M118"/>
+  <dimension ref="A1:M119"/>
   <sheetViews>
-    <sheetView topLeftCell="A90" workbookViewId="0">
-      <selection activeCell="K113" sqref="K113"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2814,16 +2814,16 @@
         <v>#N/A</v>
       </c>
       <c r="J112">
-        <f xml:space="preserve"> ROUND(((SUM(E3:E4) + SUM(E6:E9) + SUM(E11:E16) + SUM(E21:E116) - (J113 - K113))/K113), 3)</f>
-        <v>0.64400000000000002</v>
+        <f xml:space="preserve"> ROUND(((SUM(E3:E4) + SUM(E6:E9) + SUM(E11:E16) + SUM(E21:E118) - (J113 - K113))/K113), 3)</f>
+        <v>0.64800000000000002</v>
       </c>
       <c r="K112">
-        <f xml:space="preserve"> ROUND(((SUMIF(F3:F4, "&lt;&gt;#N/A") + SUMIF(F6:F9, "&lt;&gt;#N/A") + SUMIF(F11:F16, "&lt;&gt;#N/A") + SUMIF(F21:F116, "&lt;&gt;#N/A") - (K113 - L113)) / L113), 3)</f>
-        <v>0.53100000000000003</v>
+        <f xml:space="preserve"> ROUND(((SUMIF(F3:F4, "&lt;&gt;#N/A") + SUMIF(F6:F9, "&lt;&gt;#N/A") + SUMIF(F11:F16, "&lt;&gt;#N/A") + SUMIF(F21:F118, "&lt;&gt;#N/A") - (K113 - L113)) / L113), 3)</f>
+        <v>0.53800000000000003</v>
       </c>
       <c r="L112">
-        <f>ROUND(((SUMIF(G3:G4, "&lt;&gt;#N/A") + SUMIF(G6:G9, "&lt;&gt;#N/A") + SUMIF(G11:G16, "&lt;&gt;#N/A") + SUMIF(G21:G116, "&lt;&gt;#N/A") - (L113 - M113)) / M113), 3)</f>
-        <v>0.53800000000000003</v>
+        <f>ROUND(((SUMIF(G3:G4, "&lt;&gt;#N/A") + SUMIF(G6:G9, "&lt;&gt;#N/A") + SUMIF(G11:G16, "&lt;&gt;#N/A") + SUMIF(G21:G118, "&lt;&gt;#N/A") - (L113 - M113)) / M113), 3)</f>
+        <v>0.56399999999999995</v>
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.2">
@@ -2843,18 +2843,18 @@
         <v>1</v>
       </c>
       <c r="J113">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K113">
-        <f xml:space="preserve"> J113 - (COUNTIF(F3:F4, #N/A) + COUNTIF(F6:F9, #N/A) + COUNTIF(F11:F16, #N/A) + COUNTIF(F21:F117, #N/A))</f>
-        <v>90</v>
+        <f xml:space="preserve"> J113 - (COUNTIF(F3:F4, #N/A) + COUNTIF(F6:F9, #N/A) + COUNTIF(F11:F16, #N/A) + COUNTIF(F21:F118, #N/A))</f>
+        <v>91</v>
       </c>
       <c r="L113">
-        <f xml:space="preserve"> J113 - (COUNTIF(G3:G4, #N/A) + COUNTIF(G6:G9, #N/A) + COUNTIF(G11:G16, #N/A) + COUNTIF(G21:G117, #N/A))</f>
-        <v>64</v>
+        <f xml:space="preserve"> J113 - (COUNTIF(G3:G4, #N/A) + COUNTIF(G6:G9, #N/A) + COUNTIF(G11:G16, #N/A) + COUNTIF(G21:G118, #N/A))</f>
+        <v>65</v>
       </c>
       <c r="M113">
-        <f xml:space="preserve"> J113 - (COUNTIF(H3:H4, #N/A) + COUNTIF(H6:H9, #N/A) + COUNTIF(H11:H16, #N/A) + COUNTIF(H21:H117, #N/A))</f>
+        <f xml:space="preserve"> J113 - (COUNTIF(H3:H4, #N/A) + COUNTIF(H6:H9, #N/A) + COUNTIF(H11:H16, #N/A) + COUNTIF(H21:H118, #N/A))</f>
         <v>39</v>
       </c>
     </row>
@@ -2936,34 +2936,54 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
+      <c r="A118">
+        <v>2021</v>
+      </c>
+      <c r="B118">
+        <v>1</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118">
+        <v>1</v>
+      </c>
+      <c r="G118">
+        <v>1</v>
+      </c>
+      <c r="H118" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
         <v>27</v>
       </c>
-      <c r="B118">
-        <f xml:space="preserve"> ROUND(((SUM(B3:B4) + SUM(B6:B9) + SUM(B11:B16) + SUM(B21:B117))/J113), 3)</f>
-        <v>0.63300000000000001</v>
-      </c>
-      <c r="C118">
-        <f xml:space="preserve"> ROUND(((SUM(C3:C4) + SUM(C6:C9) + SUM(C11:C16) + SUM(C21:C117))/J113), 3)</f>
-        <v>0.66100000000000003</v>
-      </c>
-      <c r="D118">
-        <f xml:space="preserve"> ROUND(((SUM(D3:D4) + SUM(D6:D9) + SUM(D11:D16) + SUM(D21:D117))/J113), 3)</f>
-        <v>0.65100000000000002</v>
-      </c>
-      <c r="E118">
-        <f xml:space="preserve"> ROUND(((SUM(E3:E4) + SUM(E6:E9) + SUM(E11:E16) + SUM(E21:E117))/J113), 3)</f>
-        <v>0.70599999999999996</v>
-      </c>
-      <c r="F118">
-        <f xml:space="preserve"> ROUND(((SUMIF(F3:F4, "&lt;&gt;#N/A") + SUMIF(F6:F9, "&lt;&gt;#N/A") + SUMIF(F11:F16, "&lt;&gt;#N/A") + SUMIF(F21:F117, "&lt;&gt;#N/A"))/K113), 3)</f>
-        <v>0.67800000000000005</v>
-      </c>
-      <c r="G118">
-        <f xml:space="preserve"> ROUND(((SUMIF(G3:G4, "&lt;&gt;#N/A") + SUMIF(G6:G9, "&lt;&gt;#N/A") + SUMIF(G11:G16, "&lt;&gt;#N/A") + SUMIF(G21:G117, "&lt;&gt;#N/A"))/L113), 3)</f>
-        <v>0.73399999999999999</v>
-      </c>
-      <c r="H118">
+      <c r="B119">
+        <f xml:space="preserve"> ROUND(((SUM(B3:B4) + SUM(B6:B9) + SUM(B11:B16) + SUM(B21:B118))/J113), 3)</f>
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C119">
+        <f xml:space="preserve"> ROUND(((SUM(C3:C4) + SUM(C6:C9) + SUM(C11:C16) + SUM(C21:C118))/J113), 3)</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="D119">
+        <f xml:space="preserve"> ROUND(((SUM(D3:D4) + SUM(D6:D9) + SUM(D11:D16) + SUM(D21:D118))/J113), 3)</f>
+        <v>0.65500000000000003</v>
+      </c>
+      <c r="E119">
+        <f xml:space="preserve"> ROUND(((SUM(E3:E4) + SUM(E6:E9) + SUM(E11:E16) + SUM(E21:E118))/J113), 3)</f>
+        <v>0.70899999999999996</v>
+      </c>
+      <c r="F119">
+        <f xml:space="preserve"> ROUND(((SUMIF(F3:F4, "&lt;&gt;#N/A") + SUMIF(F6:F9, "&lt;&gt;#N/A") + SUMIF(F11:F16, "&lt;&gt;#N/A") + SUMIF(F21:F118, "&lt;&gt;#N/A"))/K113), 3)</f>
+        <v>0.67</v>
+      </c>
+      <c r="G119">
+        <f xml:space="preserve"> ROUND(((SUMIF(G3:G4, "&lt;&gt;#N/A") + SUMIF(G6:G9, "&lt;&gt;#N/A") + SUMIF(G11:G16, "&lt;&gt;#N/A") + SUMIF(G21:G118, "&lt;&gt;#N/A"))/L113), 3)</f>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="H119">
         <f xml:space="preserve"> ROUND(((SUMIF(H3:H4, "&lt;&gt;#N/A") + SUMIF(H6:H9, "&lt;&gt;#N/A") + SUMIF(H11:H16, "&lt;&gt;#N/A") + SUMIF(H21:H117, "&lt;&gt;#N/A"))/M113), 2)</f>
         <v>1</v>
       </c>
@@ -2977,8 +2997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3190,7 +3210,7 @@
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>1</v>
       </c>
       <c r="E9">
@@ -3199,11 +3219,8 @@
       <c r="F9">
         <v>1</v>
       </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>8</v>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9" t="s">
         <v>8</v>
@@ -3219,14 +3236,20 @@
       <c r="D10">
         <v>1</v>
       </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
       <c r="G10">
         <v>1</v>
       </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
+      <c r="H10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -3236,13 +3259,13 @@
       <c r="B11">
         <v>4</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
+      <c r="D11">
         <v>1</v>
       </c>
       <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>1</v>
       </c>
       <c r="I11">
@@ -3251,33 +3274,27 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
       <c r="G12">
         <v>1</v>
       </c>
-      <c r="H12" t="s">
-        <v>8</v>
-      </c>
-      <c r="I12" t="s">
-        <v>8</v>
+      <c r="I12">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
         <v>3</v>
@@ -3285,14 +3302,17 @@
       <c r="C13">
         <v>1</v>
       </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
       <c r="E13">
         <v>1</v>
       </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>8</v>
       </c>
       <c r="I13" t="s">
         <v>8</v>
@@ -3300,7 +3320,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>3</v>
@@ -3320,7 +3340,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>3</v>
@@ -3340,7 +3360,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B16">
         <v>3</v>
@@ -3360,7 +3380,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B17">
         <v>3</v>
@@ -3380,7 +3400,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18">
         <v>3</v>
@@ -3400,7 +3420,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B19">
         <v>3</v>
@@ -3423,7 +3443,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20">
         <v>3</v>
